--- a/Fall2020/Assignments/Assignment02/Bond-Calculator.xlsx
+++ b/Fall2020/Assignments/Assignment02/Bond-Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jicker\USU\Teaching\Fall2020\repos\Fin5350\Fall2020\Assignments\Assignment02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brough/USU/Teaching/Fall2020/repos/Fin5350/Fall2020/Assignments/Assignment02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B224C471-2E59-44C1-A4F6-94F71E648A1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3C7671-47B6-884D-BAB6-7129E763E396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="6413" xr2:uid="{CC8DBE3D-1E90-485F-A7D9-4C5383E4A750}"/>
+    <workbookView xWindow="1540" yWindow="920" windowWidth="29800" windowHeight="19720" xr2:uid="{CC8DBE3D-1E90-485F-A7D9-4C5383E4A750}"/>
   </bookViews>
   <sheets>
     <sheet name="Bond Calculator" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -471,21 +479,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EA4674-B411-41D7-81F2-8EC5E39AE1A0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +501,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,15 +509,18 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="1">
+        <v>911.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,15 +528,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -540,16 +551,16 @@
       </c>
       <c r="G7" s="5">
         <f>-$D$33</f>
-        <v>-1039.1120602705082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-913.88860950162882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="7">
         <f>1 /( (1 + $B$5/$B$3)^A8)</f>
-        <v>0.96385542168674687</v>
+        <v>0.95602294455066916</v>
       </c>
       <c r="C8" s="8">
         <f>$B$1*$B$2/$B$3</f>
@@ -557,20 +568,20 @@
       </c>
       <c r="D8" s="8">
         <f>C8*B8</f>
-        <v>38.554216867469876</v>
+        <v>38.24091778202677</v>
       </c>
       <c r="G8" s="5">
         <f>C8</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" ref="B9:B31" si="0">1 /( (1 + $B$5/$B$3)^A9)</f>
-        <v>0.9290172739149366</v>
+        <v>0.91397987050733187</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:C30" si="1">$B$1*$B$2/$B$3</f>
@@ -578,20 +589,20 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" ref="D9:D31" si="2">C9*B9</f>
-        <v>37.160690956597463</v>
+        <v>36.559194820293271</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G31" si="3">C9</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>3</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>0.89543833630355341</v>
+        <v>0.87378572706245872</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="1"/>
@@ -599,20 +610,20 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="2"/>
-        <v>35.817533452142136</v>
+        <v>34.95142908249835</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
-        <v>0.86307309523234044</v>
+        <v>0.83535920369259919</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" si="1"/>
@@ -620,20 +631,20 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="2"/>
-        <v>34.522923809293616</v>
+        <v>33.414368147703968</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>0.83187768215165325</v>
+        <v>0.79862256567170087</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" si="1"/>
@@ -641,20 +652,20 @@
       </c>
       <c r="D12" s="8">
         <f t="shared" si="2"/>
-        <v>33.275107286066131</v>
+        <v>31.944902626868036</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>0.80180981412207541</v>
+        <v>0.76350149681806956</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" si="1"/>
@@ -662,20 +673,20 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="2"/>
-        <v>32.072392564883017</v>
+        <v>30.540059872722782</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>7</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
-        <v>0.77282873650320516</v>
+        <v>0.72992494915685424</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" si="1"/>
@@ -683,20 +694,20 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="2"/>
-        <v>30.913149460128206</v>
+        <v>29.196997966274168</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>8</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
-        <v>0.74489516771393249</v>
+        <v>0.69782499919393337</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="1"/>
@@ -704,20 +715,20 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="2"/>
-        <v>29.795806708557301</v>
+        <v>27.912999967757337</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>9</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
-        <v>0.71797124598933248</v>
+        <v>0.66713671051045254</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
@@ -725,20 +736,20 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" si="2"/>
-        <v>28.718849839573299</v>
+        <v>26.685468420418101</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>10</v>
       </c>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
-        <v>0.69202047806200706</v>
+        <v>0.63779800240005025</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="1"/>
@@ -746,20 +757,20 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="2"/>
-        <v>27.680819122480283</v>
+        <v>25.511920096002008</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>11</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
-        <v>0.66700768969832003</v>
+        <v>0.60974952428303064</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="1"/>
@@ -767,20 +778,20 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="2"/>
-        <v>26.680307587932802</v>
+        <v>24.389980971321226</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>12</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
-        <v>0.64289897802247697</v>
+        <v>0.58293453564343278</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="1"/>
@@ -788,20 +799,20 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="2"/>
-        <v>25.715959120899079</v>
+        <v>23.31738142573731</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>13</v>
       </c>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
-        <v>0.61966166556383329</v>
+        <v>0.5572987912461117</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="1"/>
@@ -809,20 +820,20 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="2"/>
-        <v>24.786466622553331</v>
+        <v>22.291951649844467</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>14</v>
       </c>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
-        <v>0.59726425596514043</v>
+        <v>0.5327904314016364</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" si="1"/>
@@ -830,20 +841,20 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="2"/>
-        <v>23.890570238605619</v>
+        <v>21.311617256065457</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>15</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
-        <v>0.57567639129170156</v>
+        <v>0.50935987705701369</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" si="1"/>
@@ -851,20 +862,20 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="2"/>
-        <v>23.027055651668064</v>
+        <v>20.374395082280547</v>
       </c>
       <c r="G22" s="5">
         <f>C22</f>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>16</v>
       </c>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
-        <v>0.55486881088356765</v>
+        <v>0.48695972950001309</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" si="1"/>
@@ -872,20 +883,20 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="2"/>
-        <v>22.194752435342707</v>
+        <v>19.478389180000523</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>17</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
-        <v>0.53481331169500501</v>
+        <v>0.46554467447419984</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="1"/>
@@ -893,20 +904,20 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="2"/>
-        <v>21.392532467800201</v>
+        <v>18.621786978967993</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>18</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
-        <v>0.51548271006747459</v>
+        <v>0.44507139051070732</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="1"/>
@@ -914,20 +925,20 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="2"/>
-        <v>20.619308402698984</v>
+        <v>17.802855620428293</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>19</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
-        <v>0.49685080488431282</v>
+        <v>0.4254984612913072</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" si="1"/>
@@ -935,20 +946,20 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" si="2"/>
-        <v>19.874032195372514</v>
+        <v>17.019938451652287</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>20</v>
       </c>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
-        <v>0.47889234205716891</v>
+        <v>0.40678629186549448</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="1"/>
@@ -956,20 +967,20 @@
       </c>
       <c r="D27" s="8">
         <f t="shared" si="2"/>
-        <v>19.155693682286756</v>
+        <v>16.271451674619779</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>21</v>
       </c>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
-        <v>0.46158298029606631</v>
+        <v>0.38889702855209785</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="1"/>
@@ -977,20 +988,20 @@
       </c>
       <c r="D28" s="8">
         <f t="shared" si="2"/>
-        <v>18.463319211842652</v>
+        <v>15.555881142083914</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>22</v>
       </c>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
-        <v>0.44489925811669045</v>
+        <v>0.37179448236338231</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" si="1"/>
@@ -998,20 +1009,20 @@
       </c>
       <c r="D29" s="8">
         <f t="shared" si="2"/>
-        <v>17.795970324667618</v>
+        <v>14.871779294535292</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>23</v>
       </c>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
-        <v>0.42881856204018354</v>
+        <v>0.35544405579673261</v>
       </c>
       <c r="C30" s="8">
         <f t="shared" si="1"/>
@@ -1019,20 +1030,20 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" si="2"/>
-        <v>17.152742481607341</v>
+        <v>14.217762231869305</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>24</v>
       </c>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
-        <v>0.4133190959423455</v>
+        <v>0.33981267284582461</v>
       </c>
       <c r="C31" s="8">
         <f>$B$1*$B$2/$B$3 + $B$1</f>
@@ -1040,19 +1051,19 @@
       </c>
       <c r="D31" s="8">
         <f t="shared" si="2"/>
-        <v>429.85185978003932</v>
+        <v>353.40517975965759</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="3"/>
         <v>1040</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K32">
         <v>4379.57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>9</v>
       </c>
@@ -1060,24 +1071,24 @@
       <c r="C33" s="13"/>
       <c r="D33" s="10">
         <f>SUM(D8:D31)</f>
-        <v>1039.1120602705082</v>
+        <v>913.88860950162882</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="12">
         <f>IRR(G7:G31)*$B$3</f>
-        <v>7.5000000001334666E-2</v>
+        <v>9.2000000000000082E-2</v>
       </c>
       <c r="J33">
         <v>10000</v>
       </c>
       <c r="K33" s="5">
         <f>D33*J33</f>
-        <v>10391120.602705082</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9138886.0950162876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
